--- a/src/test/resources/testData/MakeMyTripTestData.xlsx
+++ b/src/test/resources/testData/MakeMyTripTestData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Recipients Name</t>
   </si>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -584,7 +586,7 @@
       <c r="I2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="10">
+      <c r="J2" t="s" s="12">
         <v>21</v>
       </c>
     </row>

--- a/src/test/resources/testData/MakeMyTripTestData.xlsx
+++ b/src/test/resources/testData/MakeMyTripTestData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>Recipients Name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>₹ 2,05,531</t>
+  </si>
+  <si>
+    <t>₹ 1,94,581</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +189,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -586,7 +605,7 @@
       <c r="I2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="12">
+      <c r="J2" t="s" s="25">
         <v>21</v>
       </c>
     </row>
